--- a/web_ces/indicadores/SFE-XCER_out.xlsx
+++ b/web_ces/indicadores/SFE-XCER_out.xlsx
@@ -27816,13 +27816,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A1452FF8-3BB0-4CE1-9C41-1F1ABBCC4726}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DD4953AE-610B-4EA9-81D7-9EAE69FF4563}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DA53997B-9DFC-47FB-AB0B-F4086015BB01}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58CC36A5-2DD3-4E5B-95B4-A2E358CFD219}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BFFF4EA1-9FFE-447F-A216-67D2E08284D2}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FB44AEAB-8C32-49E8-A63F-3672AFABAB52}"/>
 </file>